--- a/分析シート.xlsx
+++ b/分析シート.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13,710 件</t>
+          <t>27,104 件</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26,168 個</t>
+          <t>46,585 個</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$513.64</t>
+          <t>$386.29</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$245.99</t>
+          <t>$199.99</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
@@ -1359,16 +1359,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7871</v>
+        <v>13599</v>
       </c>
       <c r="C2" t="n">
-        <v>14383</v>
+        <v>23644</v>
       </c>
       <c r="D2" t="n">
-        <v>494.9256739931394</v>
+        <v>410.0064916537981</v>
       </c>
       <c r="E2" t="n">
-        <v>259.99</v>
+        <v>229.99</v>
       </c>
     </row>
     <row r="3">
@@ -1378,16 +1378,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4605</v>
+        <v>11747</v>
       </c>
       <c r="C3" t="n">
-        <v>10207</v>
+        <v>20476</v>
       </c>
       <c r="D3" t="n">
-        <v>560.9934875135722</v>
+        <v>362.8940674214693</v>
       </c>
       <c r="E3" t="n">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -1397,16 +1397,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>765</v>
+        <v>1156</v>
       </c>
       <c r="C4" t="n">
-        <v>940</v>
+        <v>1614</v>
       </c>
       <c r="D4" t="n">
-        <v>482.9746928104576</v>
+        <v>361.1273615916955</v>
       </c>
       <c r="E4" t="n">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225</v>
+        <v>356</v>
       </c>
       <c r="C5" t="n">
-        <v>386</v>
+        <v>597</v>
       </c>
       <c r="D5" t="n">
-        <v>381.4713333333333</v>
+        <v>297.0989325842697</v>
       </c>
       <c r="E5" t="n">
-        <v>196.77</v>
+        <v>170.015</v>
       </c>
     </row>
     <row r="6">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>1000.583571428571</v>
+        <v>953.1466666666668</v>
       </c>
       <c r="E6" t="n">
         <v>417.405</v>
@@ -1458,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,51 +1506,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SEIKO</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2742</v>
+        <v>14745</v>
       </c>
       <c r="C2" t="n">
-        <v>7524</v>
+        <v>26162</v>
       </c>
       <c r="D2" t="n">
-        <v>340.7403209336251</v>
+        <v>253.5447399118345</v>
       </c>
       <c r="E2" t="n">
-        <v>190.58</v>
+        <v>170</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>6579</v>
+        <v>8497.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CASIO</t>
+          <t>SEIKO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1811</v>
+        <v>2750</v>
       </c>
       <c r="C3" t="n">
-        <v>6300</v>
+        <v>7534</v>
       </c>
       <c r="D3" t="n">
-        <v>234.2249641082275</v>
+        <v>340.4069672727273</v>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>190.58</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>7200</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="4">
@@ -1585,16 +1585,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="C5" t="n">
-        <v>1425</v>
+        <v>1526</v>
       </c>
       <c r="D5" t="n">
-        <v>472.0938604651162</v>
+        <v>443.9396260387811</v>
       </c>
       <c r="E5" t="n">
-        <v>199</v>
+        <v>193.585</v>
       </c>
       <c r="F5" t="n">
         <v>0.99</v>
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C6" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D6" t="n">
-        <v>955.1968781094528</v>
+        <v>954.426447204969</v>
       </c>
       <c r="E6" t="n">
         <v>499.99</v>
@@ -1660,13 +1660,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C8" t="n">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="D8" t="n">
-        <v>349.9150326797385</v>
+        <v>349.4617596566524</v>
       </c>
       <c r="E8" t="n">
         <v>240</v>
@@ -1710,16 +1710,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C10" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D10" t="n">
-        <v>282.0776744186047</v>
+        <v>281.9523148148148</v>
       </c>
       <c r="E10" t="n">
-        <v>256</v>
+        <v>255.81</v>
       </c>
       <c r="F10" t="n">
         <v>50.5</v>
@@ -1806,151 +1806,151 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>G-SHOCK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="D14" t="n">
-        <v>503.5595566502463</v>
+        <v>232.8521830985916</v>
       </c>
       <c r="E14" t="n">
-        <v>399.99</v>
+        <v>197</v>
       </c>
       <c r="F14" t="n">
-        <v>76.48999999999999</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>2644.79</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BREITLING</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="C15" t="n">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
-        <v>2198.880550458716</v>
+        <v>503.5595566502463</v>
       </c>
       <c r="E15" t="n">
-        <v>2197.3</v>
+        <v>399.99</v>
       </c>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>7622.37</v>
+        <v>2644.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RADO</t>
+          <t>BREITLING</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D16" t="n">
-        <v>233.2155882352941</v>
+        <v>2198.880550458716</v>
       </c>
       <c r="E16" t="n">
-        <v>199.9</v>
+        <v>2197.3</v>
       </c>
       <c r="F16" t="n">
-        <v>49.99</v>
+        <v>52</v>
       </c>
       <c r="G16" t="n">
-        <v>1006.4</v>
+        <v>7622.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Oris</t>
+          <t>RADO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C17" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>689.7074747474746</v>
+        <v>233.2155882352941</v>
       </c>
       <c r="E17" t="n">
-        <v>699.9</v>
+        <v>199.9</v>
       </c>
       <c r="F17" t="n">
-        <v>83</v>
+        <v>49.99</v>
       </c>
       <c r="G17" t="n">
-        <v>1870</v>
+        <v>1006.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HERMES</t>
+          <t>Oris</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C18" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>581.1430434782609</v>
+        <v>689.7074747474746</v>
       </c>
       <c r="E18" t="n">
-        <v>394.99</v>
+        <v>699.9</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>5900</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G-SHOCK</t>
+          <t>HERMES</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D19" t="n">
-        <v>193.4251515151515</v>
+        <v>581.1430434782609</v>
       </c>
       <c r="E19" t="n">
-        <v>173.1</v>
+        <v>394.99</v>
       </c>
       <c r="F19" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>639.84</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="20">
@@ -2006,51 +2006,51 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SAINT LAURENT</t>
+          <t>ISSEY MIYAKE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
         <v>65</v>
       </c>
       <c r="D22" t="n">
-        <v>229.1651612903226</v>
+        <v>317.9014705882353</v>
       </c>
       <c r="E22" t="n">
-        <v>164.46</v>
+        <v>255.74</v>
       </c>
       <c r="F22" t="n">
-        <v>79.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G22" t="n">
-        <v>1340</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ISSEY MIYAKE</t>
+          <t>SAINT LAURENT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
         <v>65</v>
       </c>
       <c r="D23" t="n">
-        <v>317.9014705882353</v>
+        <v>229.1651612903226</v>
       </c>
       <c r="E23" t="n">
-        <v>255.74</v>
+        <v>164.46</v>
       </c>
       <c r="F23" t="n">
-        <v>67.5</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>2000</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="24">
@@ -2060,16 +2060,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" t="n">
-        <v>183.6090909090909</v>
+        <v>182.0844444444444</v>
       </c>
       <c r="E24" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" t="n">
         <v>52</v>
@@ -2106,851 +2106,851 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Patek Philippe</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>884.5008333333334</v>
+        <v>277.749756097561</v>
       </c>
       <c r="E26" t="n">
-        <v>139.02</v>
+        <v>119.57</v>
       </c>
       <c r="F26" t="n">
-        <v>62.99</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>13748</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FENDI</t>
+          <t>Patek Philippe</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" t="n">
-        <v>240.3455769230769</v>
+        <v>884.5008333333334</v>
       </c>
       <c r="E27" t="n">
-        <v>184</v>
+        <v>139.02</v>
       </c>
       <c r="F27" t="n">
-        <v>78.84</v>
+        <v>62.99</v>
       </c>
       <c r="G27" t="n">
-        <v>996</v>
+        <v>13748</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BVLGARI</t>
+          <t>FENDI</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>1034.760625</v>
+        <v>240.3455769230769</v>
       </c>
       <c r="E28" t="n">
-        <v>787.25</v>
+        <v>184</v>
       </c>
       <c r="F28" t="n">
-        <v>71.23999999999999</v>
+        <v>78.84</v>
       </c>
       <c r="G28" t="n">
-        <v>5650</v>
+        <v>996</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CAMPER</t>
+          <t>BVLGARI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C29" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" t="n">
-        <v>100.142</v>
+        <v>1034.760625</v>
       </c>
       <c r="E29" t="n">
-        <v>97.55</v>
+        <v>787.25</v>
       </c>
       <c r="F29" t="n">
-        <v>78.40000000000001</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>122.67</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Audemars Piguet</t>
+          <t>A BATHING APE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C30" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
-        <v>635.7006250000001</v>
+        <v>370.232972972973</v>
       </c>
       <c r="E30" t="n">
-        <v>320</v>
+        <v>327.71</v>
       </c>
       <c r="F30" t="n">
-        <v>70.98999999999999</v>
+        <v>52.8</v>
       </c>
       <c r="G30" t="n">
-        <v>5443.35</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Frederique Constant</t>
+          <t>CAMPER</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>665.1916216216216</v>
+        <v>100.142</v>
       </c>
       <c r="E31" t="n">
-        <v>599.9</v>
+        <v>97.55</v>
       </c>
       <c r="F31" t="n">
-        <v>95</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>1598.32</v>
+        <v>122.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IWC</t>
+          <t>Audemars Piguet</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D32" t="n">
-        <v>2560.387666666667</v>
+        <v>635.7006250000001</v>
       </c>
       <c r="E32" t="n">
-        <v>1810.245</v>
+        <v>320</v>
       </c>
       <c r="F32" t="n">
-        <v>57.18</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>20760</v>
+        <v>5443.35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chopard</t>
+          <t>Frederique Constant</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>2252.437826086957</v>
+        <v>665.1916216216216</v>
       </c>
       <c r="E33" t="n">
-        <v>1518</v>
+        <v>599.9</v>
       </c>
       <c r="F33" t="n">
-        <v>59.5</v>
+        <v>95</v>
       </c>
       <c r="G33" t="n">
-        <v>9800</v>
+        <v>1598.32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TIFFANY &amp; CO.</t>
+          <t>IWC</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>934.8569565217391</v>
+        <v>2560.387666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>642</v>
+        <v>1810.245</v>
       </c>
       <c r="F34" t="n">
-        <v>108.88</v>
+        <v>57.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2382.8</v>
+        <v>20760</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LOUIS VUITTON</t>
+          <t>Chopard</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>1336.777619047619</v>
+        <v>2252.437826086957</v>
       </c>
       <c r="E35" t="n">
-        <v>974.4</v>
+        <v>1518</v>
       </c>
       <c r="F35" t="n">
-        <v>62.28</v>
+        <v>59.5</v>
       </c>
       <c r="G35" t="n">
-        <v>3553</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>Grand Seiko</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
-        <v>167.5989473684211</v>
+        <v>182.6252631578948</v>
       </c>
       <c r="E36" t="n">
-        <v>143.99</v>
+        <v>101</v>
       </c>
       <c r="F36" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>602</v>
+        <v>1060.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHANEL</t>
+          <t>Baby-G</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>3343.159130434783</v>
+        <v>129.0658823529412</v>
       </c>
       <c r="E37" t="n">
-        <v>1936.3</v>
+        <v>134</v>
       </c>
       <c r="F37" t="n">
-        <v>50.98</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
-        <v>12996.73</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A BATHING APE</t>
+          <t>TIFFANY &amp; CO.</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>399.78375</v>
+        <v>906.7379166666666</v>
       </c>
       <c r="E38" t="n">
-        <v>364</v>
+        <v>641</v>
       </c>
       <c r="F38" t="n">
-        <v>52.8</v>
+        <v>108.88</v>
       </c>
       <c r="G38" t="n">
-        <v>846</v>
+        <v>2382.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fossil</t>
+          <t>LOUIS VUITTON</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
-        <v>224.5547058823529</v>
+        <v>1336.777619047619</v>
       </c>
       <c r="E39" t="n">
-        <v>194</v>
+        <v>974.4</v>
       </c>
       <c r="F39" t="n">
-        <v>72.59999999999999</v>
+        <v>62.28</v>
       </c>
       <c r="G39" t="n">
-        <v>646</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BULOVA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3294444444444</v>
+        <v>167.5989473684211</v>
       </c>
       <c r="E40" t="n">
-        <v>367.04</v>
+        <v>143.99</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G40" t="n">
-        <v>949</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Franck Muller</t>
+          <t>CHANEL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D41" t="n">
-        <v>722.2294736842106</v>
+        <v>3343.159130434783</v>
       </c>
       <c r="E41" t="n">
-        <v>160</v>
+        <v>1936.3</v>
       </c>
       <c r="F41" t="n">
-        <v>60</v>
+        <v>50.98</v>
       </c>
       <c r="G41" t="n">
-        <v>2774.02</v>
+        <v>12996.73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Zenith</t>
+          <t>Daniel Wellington</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D42" t="n">
-        <v>3321.531111111111</v>
+        <v>259.5353333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>3650.985</v>
+        <v>190.25</v>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="G42" t="n">
-        <v>7254.05</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BEAMS</t>
+          <t>OFF-WHITE</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
-        <v>187.6542857142857</v>
+        <v>146.1155555555555</v>
       </c>
       <c r="E43" t="n">
-        <v>146.54</v>
+        <v>136.88</v>
       </c>
       <c r="F43" t="n">
-        <v>129.13</v>
+        <v>90</v>
       </c>
       <c r="G43" t="n">
-        <v>317</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jaeger-LeCoultre</t>
+          <t>BULOVA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>3121.755625</v>
+        <v>413.3294444444444</v>
       </c>
       <c r="E44" t="n">
-        <v>2213.805</v>
+        <v>367.04</v>
       </c>
       <c r="F44" t="n">
-        <v>112.55</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>11163</v>
+        <v>949</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hublot</t>
+          <t>Fossil</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>4178.855625</v>
+        <v>224.5547058823529</v>
       </c>
       <c r="E45" t="n">
-        <v>2872.365</v>
+        <v>194</v>
       </c>
       <c r="F45" t="n">
-        <v>55</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>20360</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINN</t>
+          <t>Franck Muller</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.1425</v>
+        <v>722.2294736842106</v>
       </c>
       <c r="E46" t="n">
-        <v>1869.725</v>
+        <v>160</v>
       </c>
       <c r="F46" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="G46" t="n">
-        <v>4199.25</v>
+        <v>2774.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vivienne Westwood</t>
+          <t>BEAMS</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>189.53625</v>
+        <v>179.07625</v>
       </c>
       <c r="E47" t="n">
-        <v>166.6</v>
+        <v>144.765</v>
       </c>
       <c r="F47" t="n">
-        <v>102.98</v>
+        <v>119.03</v>
       </c>
       <c r="G47" t="n">
-        <v>317.29</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Apple Watch</t>
+          <t>Zenith</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
-        <v>90.072</v>
+        <v>3321.531111111111</v>
       </c>
       <c r="E48" t="n">
-        <v>58.845</v>
+        <v>3650.985</v>
       </c>
       <c r="F48" t="n">
-        <v>42.13</v>
+        <v>200</v>
       </c>
       <c r="G48" t="n">
-        <v>267.04</v>
+        <v>7254.05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>SINN</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>659.1180000000001</v>
+        <v>2022.1425</v>
       </c>
       <c r="E49" t="n">
-        <v>305.475</v>
+        <v>1869.725</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G49" t="n">
-        <v>3098</v>
+        <v>4199.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BURBERRY</t>
+          <t>Jaeger-LeCoultre</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>178.2123076923077</v>
+        <v>3121.755625</v>
       </c>
       <c r="E50" t="n">
-        <v>165.99</v>
+        <v>2213.805</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>112.55</v>
       </c>
       <c r="G50" t="n">
-        <v>302.58</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JUNGHANS</t>
+          <t>Hublot</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>805.6999999999999</v>
+        <v>4178.855625</v>
       </c>
       <c r="E51" t="n">
-        <v>707.0899999999999</v>
+        <v>2872.365</v>
       </c>
       <c r="F51" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G51" t="n">
-        <v>2080</v>
+        <v>20360</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BREGUET</t>
+          <t>Vivienne Westwood</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>2208.438888888889</v>
+        <v>189.53625</v>
       </c>
       <c r="E52" t="n">
-        <v>373</v>
+        <v>166.6</v>
       </c>
       <c r="F52" t="n">
-        <v>150</v>
+        <v>102.98</v>
       </c>
       <c r="G52" t="n">
-        <v>9410</v>
+        <v>317.29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Snoopy</t>
+          <t>Apple Watch</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>161.1175</v>
+        <v>90.072</v>
       </c>
       <c r="E53" t="n">
-        <v>133.985</v>
+        <v>58.845</v>
       </c>
       <c r="F53" t="n">
-        <v>65</v>
+        <v>42.13</v>
       </c>
       <c r="G53" t="n">
-        <v>380</v>
+        <v>267.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Baume &amp; Mercier</t>
+          <t>JUNGHANS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>760.9530769230769</v>
+        <v>805.6999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>533.97</v>
+        <v>707.0899999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>142.9</v>
+        <v>65</v>
       </c>
       <c r="G54" t="n">
-        <v>1802.64</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Grand Seiko</t>
+          <t>BURBERRY</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>90.13800000000001</v>
+        <v>178.2123076923077</v>
       </c>
       <c r="E55" t="n">
+        <v>165.99</v>
+      </c>
+      <c r="F55" t="n">
         <v>100</v>
       </c>
-      <c r="F55" t="n">
-        <v>69</v>
-      </c>
       <c r="G55" t="n">
-        <v>101</v>
+        <v>302.58</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MONTBLANC</t>
+          <t>Baume &amp; Mercier</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>1213.96</v>
+        <v>732.1700000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>1213.8</v>
+        <v>516.9349999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>512.1</v>
+        <v>142.9</v>
       </c>
       <c r="G56" t="n">
-        <v>3008.32</v>
+        <v>1802.64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MOVADO</t>
+          <t>Snoopy</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>423.495</v>
+        <v>161.1175</v>
       </c>
       <c r="E57" t="n">
-        <v>512.495</v>
+        <v>133.985</v>
       </c>
       <c r="F57" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G57" t="n">
-        <v>618.99</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ONE PIECE</t>
+          <t>BREGUET</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>227.716</v>
+        <v>2208.438888888889</v>
       </c>
       <c r="E58" t="n">
-        <v>204.99</v>
+        <v>373</v>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G58" t="n">
-        <v>387</v>
+        <v>9410</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Baby-G</t>
+          <t>Supreme</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>101.9066666666667</v>
+        <v>371.995</v>
       </c>
       <c r="E59" t="n">
-        <v>84.29000000000001</v>
+        <v>295.32</v>
       </c>
       <c r="F59" t="n">
-        <v>76.43000000000001</v>
+        <v>227.04</v>
       </c>
       <c r="G59" t="n">
-        <v>145</v>
+        <v>984.9299999999999</v>
       </c>
     </row>
     <row r="60">
@@ -2960,19 +2960,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>135.403</v>
+        <v>128.1118181818182</v>
       </c>
       <c r="E60" t="n">
-        <v>119.5</v>
+        <v>111</v>
       </c>
       <c r="F60" t="n">
-        <v>62.4</v>
+        <v>55.2</v>
       </c>
       <c r="G60" t="n">
         <v>352</v>
@@ -2981,176 +2981,176 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Vacheron Constantin</t>
+          <t>MONTBLANC</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>3555.69</v>
+        <v>1213.96</v>
       </c>
       <c r="E61" t="n">
-        <v>410</v>
+        <v>1213.8</v>
       </c>
       <c r="F61" t="n">
-        <v>150</v>
+        <v>512.1</v>
       </c>
       <c r="G61" t="n">
-        <v>28075.57</v>
+        <v>3008.32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SKAGEN</t>
+          <t>MOVADO</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>150.3222222222222</v>
+        <v>423.495</v>
       </c>
       <c r="E62" t="n">
-        <v>124</v>
+        <v>512.495</v>
       </c>
       <c r="F62" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G62" t="n">
-        <v>408.33</v>
+        <v>618.99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>ONE PIECE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>669.161111111111</v>
+        <v>227.716</v>
       </c>
       <c r="E63" t="n">
-        <v>406.64</v>
+        <v>204.99</v>
       </c>
       <c r="F63" t="n">
-        <v>136.79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="n">
-        <v>1469.3</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GaGa MILANO</t>
+          <t>SKAGEN</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>268.25</v>
+        <v>146.389</v>
       </c>
       <c r="E64" t="n">
-        <v>256.045</v>
+        <v>123</v>
       </c>
       <c r="F64" t="n">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="G64" t="n">
-        <v>535</v>
+        <v>408.33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>673.226</v>
+        <v>669.161111111111</v>
       </c>
       <c r="E65" t="n">
-        <v>429.99</v>
+        <v>406.64</v>
       </c>
       <c r="F65" t="n">
-        <v>186.14</v>
+        <v>136.79</v>
       </c>
       <c r="G65" t="n">
-        <v>2050</v>
+        <v>1469.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CHAUMET</t>
+          <t>Vacheron Constantin</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>837.5225</v>
+        <v>3555.69</v>
       </c>
       <c r="E66" t="n">
-        <v>973.2</v>
+        <v>410</v>
       </c>
       <c r="F66" t="n">
-        <v>102.14</v>
+        <v>150</v>
       </c>
       <c r="G66" t="n">
-        <v>1055.7</v>
+        <v>28075.57</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Supreme</t>
+          <t>STUSSY</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>280.13</v>
+        <v>367.2688888888889</v>
       </c>
       <c r="E67" t="n">
-        <v>299</v>
+        <v>232.55</v>
       </c>
       <c r="F67" t="n">
-        <v>227.04</v>
+        <v>135.85</v>
       </c>
       <c r="G67" t="n">
-        <v>314.35</v>
+        <v>1141.96</v>
       </c>
     </row>
     <row r="68">
@@ -3181,182 +3181,182 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bell &amp; Ross</t>
+          <t>PILOT</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>2030.974285714286</v>
+        <v>673.226</v>
       </c>
       <c r="E69" t="n">
-        <v>1800</v>
+        <v>429.99</v>
       </c>
       <c r="F69" t="n">
-        <v>101.54</v>
+        <v>186.14</v>
       </c>
       <c r="G69" t="n">
-        <v>5061.38</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PANERAI</t>
+          <t>CHAUMET</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>3085.721428571429</v>
+        <v>837.5225</v>
       </c>
       <c r="E70" t="n">
-        <v>3467.32</v>
+        <v>973.2</v>
       </c>
       <c r="F70" t="n">
-        <v>210</v>
+        <v>102.14</v>
       </c>
       <c r="G70" t="n">
-        <v>4097.09</v>
+        <v>1055.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Raymond Weil</t>
+          <t>GaGa MILANO</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>467.4928571428571</v>
+        <v>268.25</v>
       </c>
       <c r="E71" t="n">
-        <v>299.9</v>
+        <v>256.045</v>
       </c>
       <c r="F71" t="n">
-        <v>113.4</v>
+        <v>110</v>
       </c>
       <c r="G71" t="n">
-        <v>1225.5</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>PANERAI</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>198.1616666666667</v>
+        <v>3085.721428571429</v>
       </c>
       <c r="E72" t="n">
-        <v>123.3</v>
+        <v>3467.32</v>
       </c>
       <c r="F72" t="n">
-        <v>74.38</v>
+        <v>210</v>
       </c>
       <c r="G72" t="n">
-        <v>650</v>
+        <v>4097.09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>バンダイ</t>
+          <t>Raymond Weil</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
-        <v>149.3233333333334</v>
+        <v>467.4928571428571</v>
       </c>
       <c r="E73" t="n">
-        <v>153.69</v>
+        <v>299.9</v>
       </c>
       <c r="F73" t="n">
-        <v>132.05</v>
+        <v>113.4</v>
       </c>
       <c r="G73" t="n">
-        <v>162.23</v>
+        <v>1225.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Maurice Lacroix</t>
+          <t>EDIFICE</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>688.63</v>
+        <v>461.9066666666667</v>
       </c>
       <c r="E74" t="n">
-        <v>443.8</v>
+        <v>460</v>
       </c>
       <c r="F74" t="n">
-        <v>149.9</v>
+        <v>383.99</v>
       </c>
       <c r="G74" t="n">
-        <v>2150</v>
+        <v>541.73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Richard Mille</t>
+          <t>Bell &amp; Ross</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>711.2316666666667</v>
+        <v>2030.974285714286</v>
       </c>
       <c r="E75" t="n">
-        <v>753.75</v>
+        <v>1800</v>
       </c>
       <c r="F75" t="n">
-        <v>179.99</v>
+        <v>101.54</v>
       </c>
       <c r="G75" t="n">
-        <v>1000</v>
+        <v>5061.38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NOMOS</t>
+          <t>Van Cleef &amp; Arpels</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3366,47 +3366,47 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1641.596666666667</v>
+        <v>2200.598333333333</v>
       </c>
       <c r="E76" t="n">
-        <v>1321.365</v>
+        <v>1039.045</v>
       </c>
       <c r="F76" t="n">
-        <v>767.29</v>
+        <v>74</v>
       </c>
       <c r="G76" t="n">
-        <v>3200</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mont-bell</t>
+          <t>Maurice Lacroix</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>565.1733333333333</v>
+        <v>688.63</v>
       </c>
       <c r="E77" t="n">
-        <v>519.3</v>
+        <v>443.8</v>
       </c>
       <c r="F77" t="n">
-        <v>465</v>
+        <v>149.9</v>
       </c>
       <c r="G77" t="n">
-        <v>711.22</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Van Cleef &amp; Arpels</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3416,172 +3416,172 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>2200.598333333333</v>
+        <v>198.1616666666667</v>
       </c>
       <c r="E78" t="n">
-        <v>1039.045</v>
+        <v>123.3</v>
       </c>
       <c r="F78" t="n">
-        <v>74</v>
+        <v>74.38</v>
       </c>
       <c r="G78" t="n">
-        <v>8738</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Pokemon</t>
+          <t>バンダイ</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>76.27</v>
+        <v>149.3233333333334</v>
       </c>
       <c r="E79" t="n">
-        <v>75.47</v>
+        <v>153.69</v>
       </c>
       <c r="F79" t="n">
-        <v>74.34</v>
+        <v>132.05</v>
       </c>
       <c r="G79" t="n">
-        <v>79</v>
+        <v>162.23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VERSACE</t>
+          <t>mont-bell</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>298.2</v>
+        <v>565.1733333333333</v>
       </c>
       <c r="E80" t="n">
-        <v>381</v>
+        <v>519.3</v>
       </c>
       <c r="F80" t="n">
-        <v>96</v>
+        <v>465</v>
       </c>
       <c r="G80" t="n">
-        <v>432</v>
+        <v>711.22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EDIFICE</t>
+          <t>Richard Mille</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>460</v>
+        <v>711.2316666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>460</v>
+        <v>753.75</v>
       </c>
       <c r="F81" t="n">
-        <v>460</v>
+        <v>179.99</v>
       </c>
       <c r="G81" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INVICTA</t>
+          <t>NOMOS</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>269.366</v>
+        <v>1641.596666666667</v>
       </c>
       <c r="E82" t="n">
-        <v>174</v>
+        <v>1321.365</v>
       </c>
       <c r="F82" t="n">
-        <v>135.14</v>
+        <v>767.29</v>
       </c>
       <c r="G82" t="n">
-        <v>689.6900000000001</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ムーミン</t>
+          <t>PORTER</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>104.62</v>
+        <v>235.0125</v>
       </c>
       <c r="E83" t="n">
-        <v>104.62</v>
+        <v>232.5</v>
       </c>
       <c r="F83" t="n">
-        <v>59.24</v>
+        <v>77.55</v>
       </c>
       <c r="G83" t="n">
-        <v>150</v>
+        <v>397.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ebel</t>
+          <t>Pokemon</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>970.7959999999999</v>
+        <v>76.27</v>
       </c>
       <c r="E84" t="n">
-        <v>1142.4</v>
+        <v>75.47</v>
       </c>
       <c r="F84" t="n">
-        <v>210</v>
+        <v>74.34</v>
       </c>
       <c r="G84" t="n">
-        <v>1400</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Blancpain</t>
+          <t>VERSACE</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3591,397 +3591,397 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>3426.983999999999</v>
+        <v>298.2</v>
       </c>
       <c r="E85" t="n">
-        <v>2318</v>
+        <v>381</v>
       </c>
       <c r="F85" t="n">
-        <v>385.92</v>
+        <v>96</v>
       </c>
       <c r="G85" t="n">
-        <v>8406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Paul Smith</t>
+          <t>Ebel</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>179.155</v>
+        <v>970.7959999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>191.995</v>
+        <v>1142.4</v>
       </c>
       <c r="F86" t="n">
-        <v>127.63</v>
+        <v>210</v>
       </c>
       <c r="G86" t="n">
-        <v>205</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MICHAEL KORS</t>
+          <t>INVICTA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>195.1275</v>
+        <v>269.366</v>
       </c>
       <c r="E87" t="n">
-        <v>186.495</v>
+        <v>174</v>
       </c>
       <c r="F87" t="n">
-        <v>137.52</v>
+        <v>135.14</v>
       </c>
       <c r="G87" t="n">
-        <v>270</v>
+        <v>689.6900000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SWAROVSKI</t>
+          <t>ムーミン</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>189.495</v>
+        <v>104.62</v>
       </c>
       <c r="E88" t="n">
-        <v>189.495</v>
+        <v>104.62</v>
       </c>
       <c r="F88" t="n">
-        <v>133</v>
+        <v>59.24</v>
       </c>
       <c r="G88" t="n">
-        <v>245.99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>Blancpain</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>743.4775</v>
+        <v>3426.983999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>651.955</v>
+        <v>2318</v>
       </c>
       <c r="F89" t="n">
-        <v>400</v>
+        <v>385.92</v>
       </c>
       <c r="G89" t="n">
-        <v>1270</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A. Lange &amp; Sohne</t>
+          <t>PROSPEX</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>707</v>
+        <v>120.405</v>
       </c>
       <c r="E90" t="n">
-        <v>314</v>
+        <v>120.405</v>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>101.52</v>
       </c>
       <c r="G90" t="n">
-        <v>1950</v>
+        <v>139.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PROSPEX</t>
+          <t>CONVERSE</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>120.405</v>
+        <v>142.5333333333333</v>
       </c>
       <c r="E91" t="n">
-        <v>120.405</v>
+        <v>150</v>
       </c>
       <c r="F91" t="n">
-        <v>101.52</v>
+        <v>113.1</v>
       </c>
       <c r="G91" t="n">
-        <v>139.29</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SAILOR</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>160.8333333333333</v>
+        <v>250.16</v>
       </c>
       <c r="E92" t="n">
-        <v>165.5</v>
+        <v>250.16</v>
       </c>
       <c r="F92" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G92" t="n">
-        <v>182</v>
+        <v>355.32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Roger Dubuis</t>
+          <t>PRO TREK</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>3025</v>
+        <v>299.7775</v>
       </c>
       <c r="E93" t="n">
-        <v>3878</v>
+        <v>296.51</v>
       </c>
       <c r="F93" t="n">
-        <v>247</v>
+        <v>259.99</v>
       </c>
       <c r="G93" t="n">
-        <v>4950</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>355.32</v>
+        <v>178.7233333333334</v>
       </c>
       <c r="E94" t="n">
-        <v>355.32</v>
+        <v>205</v>
       </c>
       <c r="F94" t="n">
-        <v>355.32</v>
+        <v>117.17</v>
       </c>
       <c r="G94" t="n">
-        <v>355.32</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AVIREX</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>350.7766666666666</v>
+        <v>743.4775</v>
       </c>
       <c r="E95" t="n">
-        <v>359.95</v>
+        <v>651.955</v>
       </c>
       <c r="F95" t="n">
-        <v>312.48</v>
+        <v>400</v>
       </c>
       <c r="G95" t="n">
-        <v>379.9</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ralph Lauren</t>
+          <t>A. Lange &amp; Sohne</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>1741.65</v>
+        <v>707</v>
       </c>
       <c r="E96" t="n">
-        <v>1700</v>
+        <v>314</v>
       </c>
       <c r="F96" t="n">
-        <v>1054.55</v>
+        <v>250</v>
       </c>
       <c r="G96" t="n">
-        <v>2470.4</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PORTER</t>
+          <t>SWAROVSKI</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>237.525</v>
+        <v>189.495</v>
       </c>
       <c r="E97" t="n">
-        <v>237.525</v>
+        <v>189.495</v>
       </c>
       <c r="F97" t="n">
-        <v>77.55</v>
+        <v>133</v>
       </c>
       <c r="G97" t="n">
-        <v>397.5</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>Paul Smith</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>92.33</v>
+        <v>179.155</v>
       </c>
       <c r="E98" t="n">
-        <v>100</v>
+        <v>191.995</v>
       </c>
       <c r="F98" t="n">
-        <v>76.98999999999999</v>
+        <v>127.63</v>
       </c>
       <c r="G98" t="n">
-        <v>100</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PLATINUM</t>
+          <t>MICHAEL KORS</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>116.7533333333333</v>
+        <v>195.1275</v>
       </c>
       <c r="E99" t="n">
-        <v>99</v>
+        <v>186.495</v>
       </c>
       <c r="F99" t="n">
-        <v>75.44</v>
+        <v>137.52</v>
       </c>
       <c r="G99" t="n">
-        <v>175.82</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ferrari</t>
+          <t>SAILOR</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>1004.066666666667</v>
+        <v>160.8333333333333</v>
       </c>
       <c r="E100" t="n">
-        <v>449.22</v>
+        <v>165.5</v>
       </c>
       <c r="F100" t="n">
-        <v>272.98</v>
+        <v>135</v>
       </c>
       <c r="G100" t="n">
-        <v>2290</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Georg Jensen</t>
+          <t>ARMANI</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3991,22 +3991,22 @@
         <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>206.8433333333333</v>
+        <v>141.6733333333333</v>
       </c>
       <c r="E101" t="n">
-        <v>155.53</v>
+        <v>131.08</v>
       </c>
       <c r="F101" t="n">
-        <v>150</v>
+        <v>59.44</v>
       </c>
       <c r="G101" t="n">
-        <v>315</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mido</t>
+          <t>AVIREX</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4016,72 +4016,72 @@
         <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>643.3200000000001</v>
+        <v>350.7766666666666</v>
       </c>
       <c r="E102" t="n">
-        <v>800</v>
+        <v>359.95</v>
       </c>
       <c r="F102" t="n">
-        <v>318.65</v>
+        <v>312.48</v>
       </c>
       <c r="G102" t="n">
-        <v>811.3099999999999</v>
+        <v>379.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ALBA</t>
+          <t>Ralph Lauren</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
         <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>55.455</v>
+        <v>1741.65</v>
       </c>
       <c r="E103" t="n">
-        <v>55.455</v>
+        <v>1700</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>1054.55</v>
       </c>
       <c r="G103" t="n">
-        <v>70.91</v>
+        <v>2470.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tutima</t>
+          <t>PLATINUM</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>484.5</v>
+        <v>116.7533333333333</v>
       </c>
       <c r="E104" t="n">
-        <v>484.5</v>
+        <v>99</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>75.44</v>
       </c>
       <c r="G104" t="n">
-        <v>869</v>
+        <v>175.82</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HUNTING WORLD</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4091,22 +4091,22 @@
         <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>130.8733333333333</v>
+        <v>92.33</v>
       </c>
       <c r="E105" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>55.62</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>ALBA</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4116,222 +4116,222 @@
         <v>3</v>
       </c>
       <c r="D106" t="n">
-        <v>161.085</v>
+        <v>55.455</v>
       </c>
       <c r="E106" t="n">
-        <v>161.085</v>
+        <v>55.455</v>
       </c>
       <c r="F106" t="n">
-        <v>117.17</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>205</v>
+        <v>70.91</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ARMANI</t>
+          <t>Tutima</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
         <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>141.6733333333333</v>
+        <v>484.5</v>
       </c>
       <c r="E107" t="n">
-        <v>131.08</v>
+        <v>484.5</v>
       </c>
       <c r="F107" t="n">
-        <v>59.44</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>234.5</v>
+        <v>869</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>無印良品</t>
+          <t>MAISON KITSUNE</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>126.67</v>
+        <v>313.9866666666667</v>
       </c>
       <c r="E108" t="n">
-        <v>126.67</v>
+        <v>320.99</v>
       </c>
       <c r="F108" t="n">
-        <v>118.35</v>
+        <v>271</v>
       </c>
       <c r="G108" t="n">
-        <v>134.99</v>
+        <v>349.97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Perrelet</t>
+          <t>OCEANUS</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>509.9</v>
+        <v>1332.96</v>
       </c>
       <c r="E109" t="n">
-        <v>509.9</v>
+        <v>226.3</v>
       </c>
       <c r="F109" t="n">
-        <v>95</v>
+        <v>72.58</v>
       </c>
       <c r="G109" t="n">
-        <v>924.8</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ALPHA INDUSTRIES</t>
+          <t>Ferrari</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" t="n">
-        <v>254.495</v>
+        <v>1004.066666666667</v>
       </c>
       <c r="E110" t="n">
-        <v>254.495</v>
+        <v>449.22</v>
       </c>
       <c r="F110" t="n">
-        <v>189.99</v>
+        <v>272.98</v>
       </c>
       <c r="G110" t="n">
-        <v>319</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Piaget</t>
+          <t>Georg Jensen</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>3791.475</v>
+        <v>206.8433333333333</v>
       </c>
       <c r="E111" t="n">
-        <v>3791.475</v>
+        <v>155.53</v>
       </c>
       <c r="F111" t="n">
-        <v>209.95</v>
+        <v>150</v>
       </c>
       <c r="G111" t="n">
-        <v>7373</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MCM</t>
+          <t>Roger Dubuis</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
-        <v>112.5</v>
+        <v>3025</v>
       </c>
       <c r="E112" t="n">
-        <v>112.5</v>
+        <v>3878</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="G112" t="n">
-        <v>125</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CONVERSE</t>
+          <t>Mido</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
-        <v>164.5</v>
+        <v>643.3200000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>164.5</v>
+        <v>800</v>
       </c>
       <c r="F113" t="n">
-        <v>164.5</v>
+        <v>318.65</v>
       </c>
       <c r="G113" t="n">
-        <v>164.5</v>
+        <v>811.3099999999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Daniel Wellington</t>
+          <t>HUNTING WORLD</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
-        <v>337.495</v>
+        <v>130.8733333333333</v>
       </c>
       <c r="E114" t="n">
-        <v>337.495</v>
+        <v>162</v>
       </c>
       <c r="F114" t="n">
-        <v>254.85</v>
+        <v>55.62</v>
       </c>
       <c r="G114" t="n">
-        <v>420.14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>KANSAI YAMAMOTO</t>
+          <t>Yohji Yamamoto</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4341,22 +4341,22 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>87.5</v>
+        <v>390</v>
       </c>
       <c r="E115" t="n">
-        <v>87.5</v>
+        <v>390</v>
       </c>
       <c r="F115" t="n">
-        <v>55</v>
+        <v>355</v>
       </c>
       <c r="G115" t="n">
-        <v>120</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TORY BURCH</t>
+          <t>Piaget</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4366,22 +4366,22 @@
         <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>184.36</v>
+        <v>3791.475</v>
       </c>
       <c r="E116" t="n">
-        <v>184.36</v>
+        <v>3791.475</v>
       </c>
       <c r="F116" t="n">
-        <v>181.99</v>
+        <v>209.95</v>
       </c>
       <c r="G116" t="n">
-        <v>186.73</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>無印良品</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4391,22 +4391,22 @@
         <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>721.53</v>
+        <v>126.67</v>
       </c>
       <c r="E117" t="n">
-        <v>721.53</v>
+        <v>126.67</v>
       </c>
       <c r="F117" t="n">
-        <v>181.06</v>
+        <v>118.35</v>
       </c>
       <c r="G117" t="n">
-        <v>1262</v>
+        <v>134.99</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Glashutte Original</t>
+          <t>SQUARE ENIX</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4416,22 +4416,22 @@
         <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>3165.815</v>
+        <v>185.49</v>
       </c>
       <c r="E118" t="n">
-        <v>3165.815</v>
+        <v>185.49</v>
       </c>
       <c r="F118" t="n">
-        <v>2786.11</v>
+        <v>180.98</v>
       </c>
       <c r="G118" t="n">
-        <v>3545.52</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>OFF-WHITE</t>
+          <t>TORY BURCH</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4441,22 +4441,22 @@
         <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>120</v>
+        <v>184.36</v>
       </c>
       <c r="E119" t="n">
-        <v>120</v>
+        <v>184.36</v>
       </c>
       <c r="F119" t="n">
-        <v>90</v>
+        <v>181.99</v>
       </c>
       <c r="G119" t="n">
-        <v>150</v>
+        <v>186.73</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SQUARE ENIX</t>
+          <t>MAMMUT</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4466,22 +4466,22 @@
         <v>2</v>
       </c>
       <c r="D120" t="n">
-        <v>185.49</v>
+        <v>665.5</v>
       </c>
       <c r="E120" t="n">
-        <v>185.49</v>
+        <v>665.5</v>
       </c>
       <c r="F120" t="n">
-        <v>180.98</v>
+        <v>650</v>
       </c>
       <c r="G120" t="n">
-        <v>190</v>
+        <v>681</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Oakley</t>
+          <t>Perrelet</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4491,22 +4491,22 @@
         <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>887.105</v>
+        <v>509.9</v>
       </c>
       <c r="E121" t="n">
-        <v>887.105</v>
+        <v>509.9</v>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="G121" t="n">
-        <v>1474.21</v>
+        <v>924.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CELINE</t>
+          <t>KITH</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4516,22 +4516,22 @@
         <v>2</v>
       </c>
       <c r="D122" t="n">
-        <v>185</v>
+        <v>713.1</v>
       </c>
       <c r="E122" t="n">
-        <v>185</v>
+        <v>713.1</v>
       </c>
       <c r="F122" t="n">
-        <v>150</v>
+        <v>670</v>
       </c>
       <c r="G122" t="n">
-        <v>220</v>
+        <v>756.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BROOKS</t>
+          <t>ASICS</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4541,272 +4541,272 @@
         <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>133.12</v>
+        <v>228.78</v>
       </c>
       <c r="E123" t="n">
-        <v>133.12</v>
+        <v>228.78</v>
       </c>
       <c r="F123" t="n">
-        <v>79.98999999999999</v>
+        <v>135</v>
       </c>
       <c r="G123" t="n">
-        <v>186.25</v>
+        <v>322.56</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ドラゴンボール</t>
+          <t>Glashutte Original</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
-        <v>448.4</v>
+        <v>3165.815</v>
       </c>
       <c r="E124" t="n">
-        <v>448.4</v>
+        <v>3165.815</v>
       </c>
       <c r="F124" t="n">
-        <v>448.4</v>
+        <v>2786.11</v>
       </c>
       <c r="G124" t="n">
-        <v>448.4</v>
+        <v>3545.52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Oakley</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>119.51</v>
+        <v>887.105</v>
       </c>
       <c r="E125" t="n">
-        <v>119.51</v>
+        <v>887.105</v>
       </c>
       <c r="F125" t="n">
-        <v>119.51</v>
+        <v>300</v>
       </c>
       <c r="G125" t="n">
-        <v>119.51</v>
+        <v>1474.21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>kate spade</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>419.02</v>
+        <v>721.53</v>
       </c>
       <c r="E126" t="n">
-        <v>419.02</v>
+        <v>721.53</v>
       </c>
       <c r="F126" t="n">
-        <v>419.02</v>
+        <v>181.06</v>
       </c>
       <c r="G126" t="n">
-        <v>419.02</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Salvatore Ferragamo</t>
+          <t>NEIGHBORHOOD</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>212</v>
+        <v>354</v>
       </c>
       <c r="E127" t="n">
-        <v>212</v>
+        <v>354</v>
       </c>
       <c r="F127" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="G127" t="n">
-        <v>212</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>STUSSY</t>
+          <t>CELINE</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>1141.96</v>
+        <v>185</v>
       </c>
       <c r="E128" t="n">
-        <v>1141.96</v>
+        <v>185</v>
       </c>
       <c r="F128" t="n">
-        <v>1141.96</v>
+        <v>150</v>
       </c>
       <c r="G128" t="n">
-        <v>1141.96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>スタジオジブリ</t>
+          <t>A.P.C.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>500</v>
+        <v>340.885</v>
       </c>
       <c r="E129" t="n">
-        <v>500</v>
+        <v>340.885</v>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="G129" t="n">
-        <v>500</v>
+        <v>348.77</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Laco</t>
+          <t>BROOKS</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>275</v>
+        <v>133.12</v>
       </c>
       <c r="E130" t="n">
-        <v>275</v>
+        <v>133.12</v>
       </c>
       <c r="F130" t="n">
-        <v>275</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>275</v>
+        <v>186.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SHIPS</t>
+          <t>KANSAI YAMAMOTO</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>150</v>
+        <v>87.5</v>
       </c>
       <c r="E131" t="n">
-        <v>150</v>
+        <v>87.5</v>
       </c>
       <c r="F131" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="G131" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ESSENTIALS</t>
+          <t>MCM</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>237.89</v>
+        <v>112.5</v>
       </c>
       <c r="E132" t="n">
-        <v>237.89</v>
+        <v>112.5</v>
       </c>
       <c r="F132" t="n">
-        <v>237.89</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>237.89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ASICS</t>
+          <t>ALPHA INDUSTRIES</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>322.56</v>
+        <v>254.495</v>
       </c>
       <c r="E133" t="n">
-        <v>322.56</v>
+        <v>254.495</v>
       </c>
       <c r="F133" t="n">
-        <v>322.56</v>
+        <v>189.99</v>
       </c>
       <c r="G133" t="n">
-        <v>322.56</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ASTRON</t>
+          <t>CHROME HEARTS</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4816,22 +4816,22 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1448.45</v>
+        <v>59</v>
       </c>
       <c r="E134" t="n">
-        <v>1448.45</v>
+        <v>59</v>
       </c>
       <c r="F134" t="n">
-        <v>1448.45</v>
+        <v>59</v>
       </c>
       <c r="G134" t="n">
-        <v>1448.45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Alpina</t>
+          <t>CHALLENGER</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4841,22 +4841,22 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>617</v>
+        <v>100.76</v>
       </c>
       <c r="E135" t="n">
-        <v>617</v>
+        <v>100.76</v>
       </c>
       <c r="F135" t="n">
-        <v>617</v>
+        <v>100.76</v>
       </c>
       <c r="G135" t="n">
-        <v>617</v>
+        <v>100.76</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4866,16 +4866,16 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>185.99</v>
+        <v>119.51</v>
       </c>
       <c r="E136" t="n">
-        <v>185.99</v>
+        <v>119.51</v>
       </c>
       <c r="F136" t="n">
-        <v>185.99</v>
+        <v>119.51</v>
       </c>
       <c r="G136" t="n">
-        <v>185.99</v>
+        <v>119.51</v>
       </c>
     </row>
     <row r="137">
@@ -4906,7 +4906,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CHALLENGER</t>
+          <t>CREDOR</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4916,22 +4916,22 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>100.76</v>
+        <v>113.05</v>
       </c>
       <c r="E138" t="n">
-        <v>100.76</v>
+        <v>113.05</v>
       </c>
       <c r="F138" t="n">
-        <v>100.76</v>
+        <v>113.05</v>
       </c>
       <c r="G138" t="n">
-        <v>100.76</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CHROME HEARTS</t>
+          <t>kate spade</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4941,22 +4941,22 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>59</v>
+        <v>419.02</v>
       </c>
       <c r="E139" t="n">
-        <v>59</v>
+        <v>419.02</v>
       </c>
       <c r="F139" t="n">
-        <v>59</v>
+        <v>419.02</v>
       </c>
       <c r="G139" t="n">
-        <v>59</v>
+        <v>419.02</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>COACH</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4966,22 +4966,22 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>202</v>
+        <v>185.99</v>
       </c>
       <c r="E140" t="n">
-        <v>202</v>
+        <v>185.99</v>
       </c>
       <c r="F140" t="n">
-        <v>202</v>
+        <v>185.99</v>
       </c>
       <c r="G140" t="n">
-        <v>202</v>
+        <v>185.99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CREDOR</t>
+          <t>スタジオジブリ</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4991,22 +4991,22 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>113.05</v>
+        <v>500</v>
       </c>
       <c r="E141" t="n">
-        <v>113.05</v>
+        <v>500</v>
       </c>
       <c r="F141" t="n">
-        <v>113.05</v>
+        <v>500</v>
       </c>
       <c r="G141" t="n">
-        <v>113.05</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CREED</t>
+          <t>ドラゴンボール</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -5016,22 +5016,22 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>350</v>
+        <v>448.4</v>
       </c>
       <c r="E142" t="n">
-        <v>350</v>
+        <v>448.4</v>
       </c>
       <c r="F142" t="n">
-        <v>350</v>
+        <v>448.4</v>
       </c>
       <c r="G142" t="n">
-        <v>350</v>
+        <v>448.4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Eterna</t>
+          <t>Alpina</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5041,22 +5041,22 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1314.4</v>
+        <v>617</v>
       </c>
       <c r="E143" t="n">
-        <v>1314.4</v>
+        <v>617</v>
       </c>
       <c r="F143" t="n">
-        <v>1314.4</v>
+        <v>617</v>
       </c>
       <c r="G143" t="n">
-        <v>1314.4</v>
+        <v>617</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RICOH</t>
+          <t>ASTRON</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5066,22 +5066,22 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>366.17</v>
+        <v>1448.45</v>
       </c>
       <c r="E144" t="n">
-        <v>366.17</v>
+        <v>1448.45</v>
       </c>
       <c r="F144" t="n">
-        <v>366.17</v>
+        <v>1448.45</v>
       </c>
       <c r="G144" t="n">
-        <v>366.17</v>
+        <v>1448.45</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HONMA</t>
+          <t>COACH</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -5091,22 +5091,22 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="E145" t="n">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="F145" t="n">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="G145" t="n">
-        <v>85</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HUMAN MADE</t>
+          <t>HARLEY-DAVIDSON</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5116,22 +5116,22 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>432.33</v>
+        <v>260.99</v>
       </c>
       <c r="E146" t="n">
-        <v>432.33</v>
+        <v>260.99</v>
       </c>
       <c r="F146" t="n">
-        <v>432.33</v>
+        <v>260.99</v>
       </c>
       <c r="G146" t="n">
-        <v>432.33</v>
+        <v>260.99</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MIKIMOTO</t>
+          <t>CREED</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5141,22 +5141,22 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="E147" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="F147" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="G147" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Maserati</t>
+          <t>SHIPS</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5166,22 +5166,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="E148" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="F148" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="G148" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>RICOH</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5191,22 +5191,22 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>169.1</v>
+        <v>366.17</v>
       </c>
       <c r="E149" t="n">
-        <v>169.1</v>
+        <v>366.17</v>
       </c>
       <c r="F149" t="n">
-        <v>169.1</v>
+        <v>366.17</v>
       </c>
       <c r="G149" t="n">
-        <v>169.1</v>
+        <v>366.17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NEIGHBORHOOD</t>
+          <t>PRESAGE</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5216,22 +5216,22 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="E150" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="F150" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="G150" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Nintendo</t>
+          <t>PORSCHE</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5241,22 +5241,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>89.95999999999999</v>
+        <v>850</v>
       </c>
       <c r="E151" t="n">
-        <v>89.95999999999999</v>
+        <v>850</v>
       </c>
       <c r="F151" t="n">
-        <v>89.95999999999999</v>
+        <v>850</v>
       </c>
       <c r="G151" t="n">
-        <v>89.95999999999999</v>
+        <v>850</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>OCEANUS</t>
+          <t>Nintendo</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -5266,22 +5266,22 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>72.58</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>72.58</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>72.58</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>72.58</v>
+        <v>89.95999999999999</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PORSCHE</t>
+          <t>Mercedes-Benz</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -5291,22 +5291,22 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>850</v>
+        <v>169.1</v>
       </c>
       <c r="E153" t="n">
-        <v>850</v>
+        <v>169.1</v>
       </c>
       <c r="F153" t="n">
-        <v>850</v>
+        <v>169.1</v>
       </c>
       <c r="G153" t="n">
-        <v>850</v>
+        <v>169.1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PRESAGE</t>
+          <t>Maserati</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5316,40 +5316,240 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>1100</v>
+        <v>88</v>
       </c>
       <c r="E154" t="n">
-        <v>1100</v>
+        <v>88</v>
       </c>
       <c r="F154" t="n">
-        <v>1100</v>
+        <v>88</v>
       </c>
       <c r="G154" t="n">
-        <v>1100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>MIKIMOTO</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>60</v>
+      </c>
+      <c r="E155" t="n">
+        <v>60</v>
+      </c>
+      <c r="F155" t="n">
+        <v>60</v>
+      </c>
+      <c r="G155" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>237.89</v>
+      </c>
+      <c r="E156" t="n">
+        <v>237.89</v>
+      </c>
+      <c r="F156" t="n">
+        <v>237.89</v>
+      </c>
+      <c r="G156" t="n">
+        <v>237.89</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Laco</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>275</v>
+      </c>
+      <c r="E157" t="n">
+        <v>275</v>
+      </c>
+      <c r="F157" t="n">
+        <v>275</v>
+      </c>
+      <c r="G157" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Salvatore Ferragamo</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>212</v>
+      </c>
+      <c r="E158" t="n">
+        <v>212</v>
+      </c>
+      <c r="F158" t="n">
+        <v>212</v>
+      </c>
+      <c r="G158" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>HUMAN MADE</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>432.33</v>
+      </c>
+      <c r="E159" t="n">
+        <v>432.33</v>
+      </c>
+      <c r="F159" t="n">
+        <v>432.33</v>
+      </c>
+      <c r="G159" t="n">
+        <v>432.33</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>HONMA</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>85</v>
+      </c>
+      <c r="E160" t="n">
+        <v>85</v>
+      </c>
+      <c r="F160" t="n">
+        <v>85</v>
+      </c>
+      <c r="G160" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="E161" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="F161" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="G161" t="n">
+        <v>131.03</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Eterna</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1314.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1314.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1314.4</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1314.4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>鬼滅の刃</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
         <v>722.6900000000001</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E163" t="n">
         <v>722.6900000000001</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F163" t="n">
         <v>722.6900000000001</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G163" t="n">
         <v>722.6900000000001</v>
       </c>
     </row>
@@ -5406,73 +5606,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4013</v>
+        <v>10147</v>
       </c>
       <c r="C2" t="n">
-        <v>10278</v>
+        <v>19404</v>
       </c>
       <c r="D2" t="n">
-        <v>642.2600847246449</v>
+        <v>410.9787247462304</v>
       </c>
       <c r="E2" t="n">
-        <v>210.94</v>
+        <v>184.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>クオーツ</t>
+          <t>ソーラー</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5399</v>
+        <v>5125</v>
       </c>
       <c r="C3" t="n">
-        <v>6881</v>
+        <v>9827</v>
       </c>
       <c r="D3" t="n">
-        <v>322.942000370439</v>
+        <v>313.47656</v>
       </c>
       <c r="E3" t="n">
-        <v>219.99</v>
+        <v>217.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>自動巻</t>
+          <t>クオーツ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2253</v>
+        <v>6647</v>
       </c>
       <c r="C4" t="n">
-        <v>4075</v>
+        <v>8642</v>
       </c>
       <c r="D4" t="n">
-        <v>914.5852552152686</v>
+        <v>294.5202151346472</v>
       </c>
       <c r="E4" t="n">
-        <v>537.41</v>
+        <v>199.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ソーラー</t>
+          <t>自動巻</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1002</v>
+        <v>2305</v>
       </c>
       <c r="C5" t="n">
-        <v>3292</v>
+        <v>4175</v>
       </c>
       <c r="D5" t="n">
-        <v>316.7966966067864</v>
+        <v>901.7150151843819</v>
       </c>
       <c r="E5" t="n">
-        <v>213.015</v>
+        <v>517.09</v>
       </c>
     </row>
     <row r="6">
@@ -5482,16 +5682,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312</v>
+        <v>2093</v>
       </c>
       <c r="C6" t="n">
-        <v>870</v>
+        <v>3698</v>
       </c>
       <c r="D6" t="n">
-        <v>169.1821794871795</v>
+        <v>168.4857859531773</v>
       </c>
       <c r="E6" t="n">
-        <v>130.58</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -5501,16 +5701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="C7" t="n">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="D7" t="n">
-        <v>411.2385220729366</v>
+        <v>403.8632058287796</v>
       </c>
       <c r="E7" t="n">
-        <v>250.74</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -5520,13 +5720,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D8" t="n">
-        <v>298.9015384615385</v>
+        <v>276.7808955223881</v>
       </c>
       <c r="E8" t="n">
         <v>205</v>
@@ -5543,7 +5743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5585,16 +5785,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12427</v>
+        <v>22377</v>
       </c>
       <c r="C2" t="n">
-        <v>23360</v>
+        <v>38726</v>
       </c>
       <c r="D2" t="n">
-        <v>452.7941611008288</v>
+        <v>358.6606734593556</v>
       </c>
       <c r="E2" t="n">
-        <v>240</v>
+        <v>199.99</v>
       </c>
     </row>
     <row r="3">
@@ -5604,16 +5804,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1082</v>
+        <v>4362</v>
       </c>
       <c r="C3" t="n">
-        <v>2573</v>
+        <v>7423</v>
       </c>
       <c r="D3" t="n">
-        <v>1211.870979667283</v>
+        <v>529.3341930307198</v>
       </c>
       <c r="E3" t="n">
-        <v>302.625</v>
+        <v>211.97</v>
       </c>
     </row>
     <row r="4">
@@ -5623,16 +5823,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="D4" t="n">
-        <v>346.2953846153846</v>
+        <v>255.7214516129033</v>
       </c>
       <c r="E4" t="n">
-        <v>250.445</v>
+        <v>177.47</v>
       </c>
     </row>
     <row r="5">
@@ -5642,16 +5842,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C5" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>748.4767857142857</v>
+        <v>628.4075925925927</v>
       </c>
       <c r="E5" t="n">
-        <v>317.5</v>
+        <v>254.795</v>
       </c>
     </row>
     <row r="6">
@@ -5661,73 +5861,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>401.6814285714286</v>
+        <v>282.9941666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>199.99</v>
+        <v>182.345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>スポーツ用品</t>
+          <t>携帯電話・アクセサリー</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>482.495</v>
+        <v>258.5465217391304</v>
       </c>
       <c r="E7" t="n">
-        <v>482.495</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>携帯電話・アクセサリー</t>
+          <t>書籍・雑誌</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>262.38</v>
+        <v>383.6544444444444</v>
       </c>
       <c r="E8" t="n">
-        <v>262.38</v>
+        <v>398.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>書籍・雑誌</t>
+          <t>スポーツ用品</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>270.665</v>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="10">
@@ -5737,16 +5937,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>550</v>
+        <v>309.26</v>
       </c>
       <c r="E10" t="n">
-        <v>550</v>
+        <v>266.12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>カメラ・写真</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>253.54</v>
+      </c>
+      <c r="E11" t="n">
+        <v>253.54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ゲーム</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>171.49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>171.49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ヘルス＆ビューティー</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>72.19</v>
       </c>
     </row>
   </sheetData>
@@ -5802,16 +6059,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12425</v>
+        <v>25745</v>
       </c>
       <c r="C2" t="n">
-        <v>23925</v>
+        <v>44221</v>
       </c>
       <c r="D2" t="n">
-        <v>514.1919822937625</v>
+        <v>380.703834142552</v>
       </c>
       <c r="E2" t="n">
-        <v>249</v>
+        <v>199.99</v>
       </c>
     </row>
     <row r="3">
@@ -5821,16 +6078,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="C3" t="n">
-        <v>1565</v>
+        <v>1629</v>
       </c>
       <c r="D3" t="n">
-        <v>380.0227838427948</v>
+        <v>373.4446842105263</v>
       </c>
       <c r="E3" t="n">
-        <v>224.895</v>
+        <v>219.995</v>
       </c>
     </row>
     <row r="4">
@@ -5840,16 +6097,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C4" t="n">
-        <v>637</v>
+        <v>675</v>
       </c>
       <c r="D4" t="n">
-        <v>911.0642987804879</v>
+        <v>877.0069914040115</v>
       </c>
       <c r="E4" t="n">
-        <v>263.66</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
@@ -5859,16 +6116,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>150.8631707317073</v>
+        <v>134.0725</v>
       </c>
       <c r="E5" t="n">
-        <v>134.89</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5935,13 +6192,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" t="n">
-        <v>269.995</v>
+        <v>269.99</v>
       </c>
     </row>
     <row r="4">
@@ -5951,13 +6208,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D4" t="n">
-        <v>376.5</v>
+        <v>354.995</v>
       </c>
     </row>
     <row r="5">
@@ -5967,45 +6224,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D5" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>竜頭</t>
+          <t>バンド/ストラップ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="D6" t="n">
-        <v>429.945</v>
+        <v>163.885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>バンド/ストラップ</t>
+          <t>竜頭</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>139</v>
+        <v>429.945</v>
       </c>
     </row>
     <row r="8">
@@ -6031,13 +6288,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>146.95</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6083,10 +6340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -6096,10 +6353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>1230</v>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="4">
@@ -6109,10 +6366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344</v>
+        <v>1641</v>
       </c>
       <c r="C4" t="n">
-        <v>344</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="5">
@@ -6122,10 +6379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303</v>
+        <v>1468</v>
       </c>
       <c r="C5" t="n">
-        <v>305</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="6">
@@ -6135,10 +6392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316</v>
+        <v>1536</v>
       </c>
       <c r="C6" t="n">
-        <v>316</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="7">
@@ -6148,10 +6405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354</v>
+        <v>1563</v>
       </c>
       <c r="C7" t="n">
-        <v>362</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="8">
@@ -6161,10 +6418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>398</v>
+        <v>1732</v>
       </c>
       <c r="C8" t="n">
-        <v>399</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="9">
@@ -6174,10 +6431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>315</v>
+        <v>1598</v>
       </c>
       <c r="C9" t="n">
-        <v>315</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="10">
@@ -6187,10 +6444,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>287</v>
+        <v>1215</v>
       </c>
       <c r="C10" t="n">
-        <v>288</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="11">
@@ -6200,10 +6457,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242</v>
+        <v>1136</v>
       </c>
       <c r="C11" t="n">
-        <v>242</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="12">
@@ -6213,10 +6470,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>257</v>
+        <v>1436</v>
       </c>
       <c r="C12" t="n">
-        <v>257</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="13">
@@ -6226,10 +6483,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801</v>
+        <v>2237</v>
       </c>
       <c r="C13" t="n">
-        <v>807</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="14">
@@ -6239,10 +6496,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9833</v>
+        <v>10252</v>
       </c>
       <c r="C14" t="n">
-        <v>22270</v>
+        <v>23864</v>
       </c>
     </row>
   </sheetData>
@@ -6288,10 +6545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -6301,10 +6558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1337</v>
+        <v>3616</v>
       </c>
       <c r="C3" t="n">
-        <v>2986</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="4">
@@ -6314,10 +6571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2127</v>
+        <v>5392</v>
       </c>
       <c r="C4" t="n">
-        <v>6533</v>
+        <v>11448</v>
       </c>
     </row>
     <row r="5">
@@ -6327,10 +6584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2169</v>
+        <v>4575</v>
       </c>
       <c r="C5" t="n">
-        <v>4274</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="6">
@@ -6340,10 +6597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1428</v>
+        <v>2682</v>
       </c>
       <c r="C6" t="n">
-        <v>2612</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="7">
@@ -6353,10 +6610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1252</v>
+        <v>2261</v>
       </c>
       <c r="C7" t="n">
-        <v>2293</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="8">
@@ -6366,10 +6623,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>824</v>
+        <v>1593</v>
       </c>
       <c r="C8" t="n">
-        <v>1512</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="9">
@@ -6379,10 +6636,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>727</v>
+        <v>1266</v>
       </c>
       <c r="C9" t="n">
-        <v>1243</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="10">
@@ -6392,10 +6649,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>427</v>
+        <v>743</v>
       </c>
       <c r="C10" t="n">
-        <v>677</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="11">
@@ -6405,10 +6662,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418</v>
+        <v>701</v>
       </c>
       <c r="C11" t="n">
-        <v>501</v>
+        <v>954</v>
       </c>
     </row>
     <row r="12">
@@ -6418,10 +6675,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>247</v>
+        <v>416</v>
       </c>
       <c r="C12" t="n">
-        <v>340</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13">
@@ -6431,10 +6688,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264</v>
+        <v>441</v>
       </c>
       <c r="C13" t="n">
-        <v>327</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
@@ -6444,10 +6701,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="C14" t="n">
-        <v>281</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15">
@@ -6457,10 +6714,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="C15" t="n">
-        <v>265</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16">
@@ -6470,10 +6727,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="C16" t="n">
-        <v>153</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17">
@@ -6483,10 +6740,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="C17" t="n">
-        <v>230</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18">
@@ -6496,10 +6753,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="C18" t="n">
-        <v>133</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -6509,10 +6766,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C19" t="n">
-        <v>157</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20">
@@ -6522,10 +6779,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C20" t="n">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21">
@@ -6535,10 +6792,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C21" t="n">
-        <v>107</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
@@ -6548,10 +6805,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1324</v>
+        <v>1599</v>
       </c>
       <c r="C22" t="n">
-        <v>1379</v>
+        <v>1681</v>
       </c>
     </row>
   </sheetData>
@@ -6565,7 +6822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6603,172 +6860,172 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SEIKO</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>283.1426666666667</v>
+        <v>450.2264367816092</v>
       </c>
       <c r="E2" t="n">
-        <v>199</v>
+        <v>306.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cartier</t>
+          <t>SEIKO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>219.6115</v>
+        <v>283.1426666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>170.625</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROLEX</t>
+          <t>Cartier</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>225.136</v>
+        <v>219.6115</v>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>170.625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GUCCI</t>
+          <t>ROLEX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1444444444444</v>
+        <v>225.136</v>
       </c>
       <c r="E5" t="n">
-        <v>249.995</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Longines</t>
+          <t>GUCCI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>441.2323529411765</v>
+        <v>307.1444444444444</v>
       </c>
       <c r="E6" t="n">
-        <v>289.99</v>
+        <v>249.995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hublot</t>
+          <t>(不明)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>4178.855625</v>
+        <v>2412.6</v>
       </c>
       <c r="E7" t="n">
-        <v>2872.365</v>
+        <v>207.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Longines</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>561.704375</v>
+        <v>441.2323529411765</v>
       </c>
       <c r="E8" t="n">
-        <v>535.015</v>
+        <v>289.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(不明)</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>2894.844444444444</v>
+        <v>561.704375</v>
       </c>
       <c r="E9" t="n">
-        <v>207.6</v>
+        <v>535.015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CASIO</t>
+          <t>Hublot</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>381.8290909090909</v>
+        <v>4178.855625</v>
       </c>
       <c r="E10" t="n">
-        <v>275</v>
+        <v>2872.365</v>
       </c>
     </row>
     <row r="11">
@@ -6888,45 +7145,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CITIZEN</t>
+          <t>Fossil</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1168.97</v>
+        <v>274.75</v>
       </c>
       <c r="E17" t="n">
-        <v>1224.44</v>
+        <v>274.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fossil</t>
+          <t>CITIZEN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>274.75</v>
+        <v>1168.97</v>
       </c>
       <c r="E18" t="n">
-        <v>274.75</v>
+        <v>1224.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Swatch</t>
+          <t>Oris</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -6936,16 +7193,16 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>155.2966666666667</v>
+        <v>1091.666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>135.99</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oris</t>
+          <t>Swatch</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -6955,16 +7212,16 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1091.666666666667</v>
+        <v>155.2966666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>1485</v>
+        <v>135.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TAG HEUER</t>
+          <t>BREITLING</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -6974,10 +7231,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>259.745</v>
+        <v>755.5150000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>259.745</v>
+        <v>755.5150000000001</v>
       </c>
     </row>
     <row r="22">
@@ -7002,7 +7259,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BREITLING</t>
+          <t>TAG HEUER</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -7012,16 +7269,16 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>755.5150000000001</v>
+        <v>259.745</v>
       </c>
       <c r="E23" t="n">
-        <v>755.5150000000001</v>
+        <v>259.745</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FENDI</t>
+          <t>G-SHOCK</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -7031,35 +7288,35 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>371.4</v>
+        <v>215</v>
       </c>
       <c r="E24" t="n">
-        <v>371.4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OFF-WHITE</t>
+          <t>FENDI</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>371.4</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>371.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HONMA</t>
+          <t>BVLGARI</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -7069,16 +7326,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>85</v>
+        <v>549</v>
       </c>
       <c r="E26" t="n">
-        <v>85</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Patek Philippe</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -7088,16 +7345,16 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>77.66</v>
+        <v>214</v>
       </c>
       <c r="E27" t="n">
-        <v>77.66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RADO</t>
+          <t>BULOVA</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -7107,16 +7364,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>500</v>
+        <v>499.99</v>
       </c>
       <c r="E28" t="n">
-        <v>500</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>SAINT LAURENT</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -7126,16 +7383,16 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>74.38</v>
+        <v>129.99</v>
       </c>
       <c r="E29" t="n">
-        <v>74.38</v>
+        <v>129.99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SAINT LAURENT</t>
+          <t>Daniel Wellington</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -7145,16 +7402,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>129.99</v>
+        <v>990</v>
       </c>
       <c r="E30" t="n">
-        <v>129.99</v>
+        <v>990</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DIOR</t>
+          <t>RADO</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -7164,16 +7421,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>229.99</v>
+        <v>500</v>
       </c>
       <c r="E31" t="n">
-        <v>229.99</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHROME HEARTS</t>
+          <t>Patek Philippe</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -7183,16 +7440,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>59</v>
+        <v>77.66</v>
       </c>
       <c r="E32" t="n">
-        <v>59</v>
+        <v>77.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BVLGARI</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -7202,16 +7459,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>549</v>
+        <v>74.38</v>
       </c>
       <c r="E33" t="n">
-        <v>549</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BULOVA</t>
+          <t>OFF-WHITE</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -7221,28 +7478,85 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>499.99</v>
+        <v>90</v>
       </c>
       <c r="E34" t="n">
-        <v>499.99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>CHROME HEARTS</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>59</v>
+      </c>
+      <c r="E35" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HONMA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>85</v>
+      </c>
+      <c r="E36" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DIOR</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>229.99</v>
+      </c>
+      <c r="E37" t="n">
+        <v>229.99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Zenith</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
         <v>200</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E38" t="n">
         <v>200</v>
       </c>
     </row>
